--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.0131276497578</v>
+        <v>1.887073</v>
       </c>
       <c r="H2">
-        <v>12.0131276497578</v>
+        <v>5.661219</v>
       </c>
       <c r="I2">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="J2">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.519471014044347</v>
+        <v>0.9880003333333333</v>
       </c>
       <c r="N2">
-        <v>0.519471014044347</v>
+        <v>2.964001</v>
       </c>
       <c r="O2">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="P2">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="Q2">
-        <v>6.240471602063868</v>
+        <v>1.864428753024333</v>
       </c>
       <c r="R2">
-        <v>6.240471602063868</v>
+        <v>16.779858777219</v>
       </c>
       <c r="S2">
-        <v>0.00478907497275752</v>
+        <v>0.0008458689208710136</v>
       </c>
       <c r="T2">
-        <v>0.00478907497275752</v>
+        <v>0.0008458689208710134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.0131276497578</v>
+        <v>1.887073</v>
       </c>
       <c r="H3">
-        <v>12.0131276497578</v>
+        <v>5.661219</v>
       </c>
       <c r="I3">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="J3">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5540484652375</v>
+        <v>46.102515</v>
       </c>
       <c r="N3">
-        <v>45.5540484652375</v>
+        <v>138.307545</v>
       </c>
       <c r="O3">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269279</v>
       </c>
       <c r="P3">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269277</v>
       </c>
       <c r="Q3">
-        <v>547.2465991761514</v>
+        <v>86.99881128859501</v>
       </c>
       <c r="R3">
-        <v>547.2465991761514</v>
+        <v>782.9893015973551</v>
       </c>
       <c r="S3">
-        <v>0.4199690598983597</v>
+        <v>0.03947031523858095</v>
       </c>
       <c r="T3">
-        <v>0.4199690598983597</v>
+        <v>0.03947031523858095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.0131276497578</v>
+        <v>1.887073</v>
       </c>
       <c r="H4">
-        <v>12.0131276497578</v>
+        <v>5.661219</v>
       </c>
       <c r="I4">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="J4">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.611205635863196</v>
+        <v>0.6702083333333334</v>
       </c>
       <c r="N4">
-        <v>0.611205635863196</v>
+        <v>2.010625</v>
       </c>
       <c r="O4">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="P4">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="Q4">
-        <v>7.342491323875958</v>
+        <v>1.264732050208333</v>
       </c>
       <c r="R4">
-        <v>7.342491323875958</v>
+        <v>11.382588451875</v>
       </c>
       <c r="S4">
-        <v>0.005634789111969378</v>
+        <v>0.000573793733209362</v>
       </c>
       <c r="T4">
-        <v>0.005634789111969378</v>
+        <v>0.0005737937332093619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.0131276497578</v>
+        <v>1.887073</v>
       </c>
       <c r="H5">
-        <v>12.0131276497578</v>
+        <v>5.661219</v>
       </c>
       <c r="I5">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="J5">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.725588006723657</v>
+        <v>0.794312</v>
       </c>
       <c r="N5">
-        <v>0.725588006723657</v>
+        <v>2.382936</v>
       </c>
       <c r="O5">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953525</v>
       </c>
       <c r="P5">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953524</v>
       </c>
       <c r="Q5">
-        <v>8.716581345904613</v>
+        <v>1.498924728776</v>
       </c>
       <c r="R5">
-        <v>8.716581345904613</v>
+        <v>13.490322558984</v>
       </c>
       <c r="S5">
-        <v>0.006689295975302735</v>
+        <v>0.0006800441372404024</v>
       </c>
       <c r="T5">
-        <v>0.006689295975302735</v>
+        <v>0.0006800441372404022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>12.0131276497578</v>
+        <v>1.887073</v>
       </c>
       <c r="H6">
-        <v>12.0131276497578</v>
+        <v>5.661219</v>
       </c>
       <c r="I6">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="J6">
-        <v>0.4431512417963491</v>
+        <v>0.04216693303329256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.658306864343572</v>
+        <v>0.69721</v>
       </c>
       <c r="N6">
-        <v>0.658306864343572</v>
+        <v>2.09163</v>
       </c>
       <c r="O6">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="P6">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="Q6">
-        <v>7.908324394071122</v>
+        <v>1.31568616633</v>
       </c>
       <c r="R6">
-        <v>7.908324394071122</v>
+        <v>11.84117549697</v>
       </c>
       <c r="S6">
-        <v>0.006069021837959832</v>
+        <v>0.000596911003390835</v>
       </c>
       <c r="T6">
-        <v>0.006069021837959832</v>
+        <v>0.0005969110033908349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.0952870780485</v>
+        <v>12.86390766666667</v>
       </c>
       <c r="H7">
-        <v>15.0952870780485</v>
+        <v>38.591723</v>
       </c>
       <c r="I7">
-        <v>0.556848758203651</v>
+        <v>0.2874459722155911</v>
       </c>
       <c r="J7">
-        <v>0.556848758203651</v>
+        <v>0.287445972215591</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.519471014044347</v>
+        <v>0.9880003333333333</v>
       </c>
       <c r="N7">
-        <v>0.519471014044347</v>
+        <v>2.964001</v>
       </c>
       <c r="O7">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="P7">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="Q7">
-        <v>7.841564085724382</v>
+        <v>12.70954506263589</v>
       </c>
       <c r="R7">
-        <v>7.841564085724382</v>
+        <v>114.385905563723</v>
       </c>
       <c r="S7">
-        <v>0.006017788511015245</v>
+        <v>0.005766167867479262</v>
       </c>
       <c r="T7">
-        <v>0.006017788511015245</v>
+        <v>0.005766167867479259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.0952870780485</v>
+        <v>12.86390766666667</v>
       </c>
       <c r="H8">
-        <v>15.0952870780485</v>
+        <v>38.591723</v>
       </c>
       <c r="I8">
-        <v>0.556848758203651</v>
+        <v>0.2874459722155911</v>
       </c>
       <c r="J8">
-        <v>0.556848758203651</v>
+        <v>0.287445972215591</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.5540484652375</v>
+        <v>46.102515</v>
       </c>
       <c r="N8">
-        <v>45.5540484652375</v>
+        <v>138.307545</v>
       </c>
       <c r="O8">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269279</v>
       </c>
       <c r="P8">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269277</v>
       </c>
       <c r="Q8">
-        <v>687.6514391500947</v>
+        <v>593.0584961611152</v>
       </c>
       <c r="R8">
-        <v>687.6514391500947</v>
+        <v>5337.526465450035</v>
       </c>
       <c r="S8">
-        <v>0.5277188179376167</v>
+        <v>0.2690635130720071</v>
       </c>
       <c r="T8">
-        <v>0.5277188179376167</v>
+        <v>0.269063513072007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.0952870780485</v>
+        <v>12.86390766666667</v>
       </c>
       <c r="H9">
-        <v>15.0952870780485</v>
+        <v>38.591723</v>
       </c>
       <c r="I9">
-        <v>0.556848758203651</v>
+        <v>0.2874459722155911</v>
       </c>
       <c r="J9">
-        <v>0.556848758203651</v>
+        <v>0.287445972215591</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.611205635863196</v>
+        <v>0.6702083333333334</v>
       </c>
       <c r="N9">
-        <v>0.611205635863196</v>
+        <v>2.010625</v>
       </c>
       <c r="O9">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="P9">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="Q9">
-        <v>9.226324537076119</v>
+        <v>8.621498117430557</v>
       </c>
       <c r="R9">
-        <v>9.226324537076119</v>
+        <v>77.593483056875</v>
       </c>
       <c r="S9">
-        <v>0.007080484096175788</v>
+        <v>0.003911470093481916</v>
       </c>
       <c r="T9">
-        <v>0.007080484096175788</v>
+        <v>0.003911470093481915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.0952870780485</v>
+        <v>12.86390766666667</v>
       </c>
       <c r="H10">
-        <v>15.0952870780485</v>
+        <v>38.591723</v>
       </c>
       <c r="I10">
-        <v>0.556848758203651</v>
+        <v>0.2874459722155911</v>
       </c>
       <c r="J10">
-        <v>0.556848758203651</v>
+        <v>0.287445972215591</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.725588006723657</v>
+        <v>0.794312</v>
       </c>
       <c r="N10">
-        <v>0.725588006723657</v>
+        <v>2.382936</v>
       </c>
       <c r="O10">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953525</v>
       </c>
       <c r="P10">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953524</v>
       </c>
       <c r="Q10">
-        <v>10.95295926188259</v>
+        <v>10.21795622652533</v>
       </c>
       <c r="R10">
-        <v>10.95295926188259</v>
+        <v>91.96160603872801</v>
       </c>
       <c r="S10">
-        <v>0.008405541507690966</v>
+        <v>0.0046357639533386</v>
       </c>
       <c r="T10">
-        <v>0.008405541507690966</v>
+        <v>0.004635763953338598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.0952870780485</v>
+        <v>12.86390766666667</v>
       </c>
       <c r="H11">
-        <v>15.0952870780485</v>
+        <v>38.591723</v>
       </c>
       <c r="I11">
-        <v>0.556848758203651</v>
+        <v>0.2874459722155911</v>
       </c>
       <c r="J11">
-        <v>0.556848758203651</v>
+        <v>0.287445972215591</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.658306864343572</v>
+        <v>0.69721</v>
       </c>
       <c r="N11">
-        <v>0.658306864343572</v>
+        <v>2.09163</v>
       </c>
       <c r="O11">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="P11">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="Q11">
-        <v>9.937331102716149</v>
+        <v>8.968845064276668</v>
       </c>
       <c r="R11">
-        <v>9.937331102716149</v>
+        <v>80.71960557849</v>
       </c>
       <c r="S11">
-        <v>0.00762612615115234</v>
+        <v>0.004069057229284217</v>
       </c>
       <c r="T11">
-        <v>0.00762612615115234</v>
+        <v>0.004069057229284216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.001456</v>
+      </c>
+      <c r="H12">
+        <v>90.004368</v>
+      </c>
+      <c r="I12">
+        <v>0.6703870947511164</v>
+      </c>
+      <c r="J12">
+        <v>0.6703870947511162</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9880003333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.964001</v>
+      </c>
+      <c r="O12">
+        <v>0.02006000579181712</v>
+      </c>
+      <c r="P12">
+        <v>0.02006000579181712</v>
+      </c>
+      <c r="Q12">
+        <v>29.64144852848533</v>
+      </c>
+      <c r="R12">
+        <v>266.773036756368</v>
+      </c>
+      <c r="S12">
+        <v>0.01344796900346685</v>
+      </c>
+      <c r="T12">
+        <v>0.01344796900346685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.001456</v>
+      </c>
+      <c r="H13">
+        <v>90.004368</v>
+      </c>
+      <c r="I13">
+        <v>0.6703870947511164</v>
+      </c>
+      <c r="J13">
+        <v>0.6703870947511162</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>46.102515</v>
+      </c>
+      <c r="N13">
+        <v>138.307545</v>
+      </c>
+      <c r="O13">
+        <v>0.9360489938269279</v>
+      </c>
+      <c r="P13">
+        <v>0.9360489938269277</v>
+      </c>
+      <c r="Q13">
+        <v>1383.14257526184</v>
+      </c>
+      <c r="R13">
+        <v>12448.28317735656</v>
+      </c>
+      <c r="S13">
+        <v>0.6275151655163398</v>
+      </c>
+      <c r="T13">
+        <v>0.6275151655163397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.001456</v>
+      </c>
+      <c r="H14">
+        <v>90.004368</v>
+      </c>
+      <c r="I14">
+        <v>0.6703870947511164</v>
+      </c>
+      <c r="J14">
+        <v>0.6703870947511162</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6702083333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.010625</v>
+      </c>
+      <c r="O14">
+        <v>0.01360767055921112</v>
+      </c>
+      <c r="P14">
+        <v>0.01360767055921112</v>
+      </c>
+      <c r="Q14">
+        <v>20.10722582333334</v>
+      </c>
+      <c r="R14">
+        <v>180.96503241</v>
+      </c>
+      <c r="S14">
+        <v>0.009122406732519841</v>
+      </c>
+      <c r="T14">
+        <v>0.009122406732519838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.001456</v>
+      </c>
+      <c r="H15">
+        <v>90.004368</v>
+      </c>
+      <c r="I15">
+        <v>0.6703870947511164</v>
+      </c>
+      <c r="J15">
+        <v>0.6703870947511162</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.794312</v>
+      </c>
+      <c r="N15">
+        <v>2.382936</v>
+      </c>
+      <c r="O15">
+        <v>0.01612742706953525</v>
+      </c>
+      <c r="P15">
+        <v>0.01612742706953524</v>
+      </c>
+      <c r="Q15">
+        <v>23.830516518272</v>
+      </c>
+      <c r="R15">
+        <v>214.474648664448</v>
+      </c>
+      <c r="S15">
+        <v>0.01081161897895624</v>
+      </c>
+      <c r="T15">
+        <v>0.01081161897895624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.001456</v>
+      </c>
+      <c r="H16">
+        <v>90.004368</v>
+      </c>
+      <c r="I16">
+        <v>0.6703870947511164</v>
+      </c>
+      <c r="J16">
+        <v>0.6703870947511162</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.69721</v>
+      </c>
+      <c r="N16">
+        <v>2.09163</v>
+      </c>
+      <c r="O16">
+        <v>0.01415590275250867</v>
+      </c>
+      <c r="P16">
+        <v>0.01415590275250867</v>
+      </c>
+      <c r="Q16">
+        <v>20.91731513776</v>
+      </c>
+      <c r="R16">
+        <v>188.25583623984</v>
+      </c>
+      <c r="S16">
+        <v>0.009489934519833619</v>
+      </c>
+      <c r="T16">
+        <v>0.009489934519833617</v>
       </c>
     </row>
   </sheetData>
